--- a/bin/print/DaySaleReport.xlsx
+++ b/bin/print/DaySaleReport.xlsx
@@ -2167,7 +2167,7 @@
   <pageMargins left="0.25" right="0.25" top="0.53125" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"Wijaya Holdings&amp;C&amp;"-,Bold"Summary&amp;R&amp;D &amp;T page &amp;P</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"Wijaya Holdings&amp;C&amp;"-,Bold"Quantity Summary&amp;R&amp;D &amp;T page &amp;P</oddHeader>
   </headerFooter>
 </worksheet>
 </file>